--- a/clo.xlsx
+++ b/clo.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+  <si>
+    <t>颜色</t>
+  </si>
   <si>
     <t>宝石名称</t>
   </si>
@@ -867,15 +870,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1422,382 +1422,384 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19" customHeight="1" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
